--- a/Tests/data-external.xlsx
+++ b/Tests/data-external.xlsx
@@ -366,14 +366,14 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <f>H1/D1*C1/B1</f>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B1">
         <v>1.88</v>
       </c>
       <c r="C1">
         <f>-H1/I1</f>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D1" s="1">
         <f>E1*F1*G1</f>
@@ -389,34 +389,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H1">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I1" s="3">
         <f>J1/H1</f>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J1">
         <f>K1*L1</f>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K1">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L1">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f t="shared" ref="A2:A18" si="0">H2/D2*C2/B2</f>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B2">
         <v>1.88</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C18" si="1">-H2/I2</f>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D18" si="2">E2*F2*G2</f>
@@ -432,34 +432,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H2">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I46" si="3">J2/H2</f>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J46" si="4">K2*L2</f>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K2">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L2">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B3">
         <v>1.88</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="2"/>
@@ -475,34 +475,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H3">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J3">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K3">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L3">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B4">
         <v>1.88</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
@@ -518,34 +518,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H4">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K4">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L4">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B5">
         <v>1.88</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
@@ -561,34 +561,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H5">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K5">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L5">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B6">
         <v>1.88</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
@@ -604,34 +604,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H6">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K6">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L6">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B7">
         <v>1.88</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
@@ -647,34 +647,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H7">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K7">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L7">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
-        <v>-0.24770167250419248</v>
+        <v>-1.7220761901612966</v>
       </c>
       <c r="B8">
         <v>1.88</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>5.9932905872424388E-3</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
@@ -690,34 +690,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H8">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="3"/>
-        <v>3337.0649577000004</v>
+        <v>120</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K8">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L8">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B9">
         <v>1.88</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
@@ -733,34 +733,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H9">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K9">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L9">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B10">
         <v>1.88</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
@@ -776,34 +776,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H10">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K10">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L10">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B11">
         <v>1.88</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
@@ -819,34 +819,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H11">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K11">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L11">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B12">
         <v>1.88</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
@@ -862,34 +862,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H12">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K12">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L12">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B13">
         <v>1.88</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
@@ -905,34 +905,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H13">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K13">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L13">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B14">
         <v>1.88</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
@@ -948,34 +948,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H14">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K14">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L14">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B15">
         <v>1.88</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
@@ -991,34 +991,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H15">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K15">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L15">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B16">
         <v>1.88</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
@@ -1034,34 +1034,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H16">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K16">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L16">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B17">
         <v>1.88</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
@@ -1077,34 +1077,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H17">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K17">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L17">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B18">
         <v>1.88</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
@@ -1120,34 +1120,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H18">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K18">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L18">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" ref="A19:A46" si="5">H19/D19*C19/B19</f>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B19">
         <v>1.88</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C46" si="6">-H19/I19</f>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ref="D19:D46" si="7">E19*F19*G19</f>
@@ -1163,34 +1163,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H19">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K19">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L19">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B20">
         <v>1.88</v>
       </c>
       <c r="C20">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="7"/>
@@ -1206,34 +1206,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H20">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K20">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L20">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B21">
         <v>1.88</v>
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="7"/>
@@ -1249,34 +1249,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H21">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K21">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L21">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B22">
         <v>1.88</v>
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="7"/>
@@ -1292,34 +1292,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H22">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K22">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L22">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B23">
         <v>1.88</v>
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="7"/>
@@ -1335,34 +1335,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H23">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K23">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L23">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B24">
         <v>1.88</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="7"/>
@@ -1378,34 +1378,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H24">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K24">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L24">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B25">
         <v>1.88</v>
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="7"/>
@@ -1421,34 +1421,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H25">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K25">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L25">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B26">
         <v>1.88</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="7"/>
@@ -1464,34 +1464,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H26">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K26">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L26">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B27">
         <v>1.88</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="7"/>
@@ -1507,34 +1507,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H27">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K27">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L27">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B28">
         <v>1.88</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="7"/>
@@ -1550,34 +1550,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H28">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K28">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L28">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B29">
         <v>1.88</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="7"/>
@@ -1593,34 +1593,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H29">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K29">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L29">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B30">
         <v>1.88</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="7"/>
@@ -1636,34 +1636,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H30">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K30">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L30">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B31">
         <v>1.88</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="7"/>
@@ -1679,34 +1679,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H31">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K31">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L31">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B32">
         <v>1.88</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="7"/>
@@ -1722,34 +1722,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H32">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K32">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L32">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B33">
         <v>1.88</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="7"/>
@@ -1765,34 +1765,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H33">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K33">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L33">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B34">
         <v>1.88</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="7"/>
@@ -1808,34 +1808,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H34">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K34">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L34">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B35">
         <v>1.88</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="7"/>
@@ -1851,34 +1851,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H35">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K35">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L35">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B36">
         <v>1.88</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="7"/>
@@ -1894,34 +1894,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H36">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K36">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L36">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B37">
         <v>1.88</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="7"/>
@@ -1937,34 +1937,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H37">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K37">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L37">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B38">
         <v>1.88</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="7"/>
@@ -1980,34 +1980,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H38">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K38">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L38">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B39">
         <v>1.88</v>
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="7"/>
@@ -2023,34 +2023,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H39">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K39">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L39">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B40">
         <v>1.88</v>
       </c>
       <c r="C40">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="7"/>
@@ -2066,34 +2066,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H40">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K40">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L40">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B41">
         <v>1.88</v>
       </c>
       <c r="C41">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="7"/>
@@ -2109,34 +2109,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H41">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K41">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L41">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B42">
         <v>1.88</v>
       </c>
       <c r="C42">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="7"/>
@@ -2152,34 +2152,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H42">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K42">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L42">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B43">
         <v>1.88</v>
       </c>
       <c r="C43">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="7"/>
@@ -2195,34 +2195,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H43">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K43">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L43">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B44">
         <v>1.88</v>
       </c>
       <c r="C44">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="7"/>
@@ -2238,34 +2238,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H44">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K44">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L44">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B45">
         <v>1.88</v>
       </c>
       <c r="C45">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="7"/>
@@ -2281,34 +2281,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H45">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J45">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K45">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L45">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="5"/>
-        <v>-11556.769232355602</v>
+        <v>-1722.0761901612966</v>
       </c>
       <c r="B46">
         <v>1.88</v>
       </c>
       <c r="C46">
         <f t="shared" si="6"/>
-        <v>7.7673046010662006</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="7"/>
@@ -2324,21 +2324,21 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H46">
-        <v>-720</v>
+        <v>-100</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="3"/>
-        <v>92.696248825000012</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <f t="shared" si="4"/>
-        <v>-66741.299154000008</v>
+        <v>-1200</v>
       </c>
       <c r="K46">
-        <v>-1800</v>
+        <v>-30</v>
       </c>
       <c r="L46">
-        <v>37.078499530000002</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
